--- a/Content/UploadCRM.xlsx
+++ b/Content/UploadCRM.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visionet\Work\CRM\contact center v7.14 (14 Juli)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="233">
   <si>
     <t>BRANCHID</t>
   </si>
@@ -723,36 +718,18 @@
   </si>
   <si>
     <t>021854331xx</t>
-  </si>
-  <si>
-    <t>Alde</t>
-  </si>
-  <si>
-    <t>Bamas</t>
-  </si>
-  <si>
-    <t>Faisal</t>
-  </si>
-  <si>
-    <t>Haqi</t>
-  </si>
-  <si>
-    <t>Mas Den</t>
-  </si>
-  <si>
-    <t>Risa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,16 +774,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -868,7 +842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -920,7 +894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1114,21 +1088,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17:AF17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -1164,7 +1138,7 @@
     <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1360,7 +1334,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1432,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1556,7 +1530,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1654,7 +1628,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1752,7 +1726,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -1850,7 +1824,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -1948,7 +1922,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -2046,7 +2020,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -2144,7 +2118,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -2242,7 +2216,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2340,7 +2314,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2438,7 +2412,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -2536,7 +2510,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -2634,7 +2608,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>221</v>
       </c>
@@ -2729,594 +2703,6 @@
         <v>42536</v>
       </c>
       <c r="AF16">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>234</v>
-      </c>
-      <c r="B17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" s="2">
-        <v>30998</v>
-      </c>
-      <c r="G17" s="3">
-        <v>31.948544665959364</v>
-      </c>
-      <c r="H17" t="s">
-        <v>226</v>
-      </c>
-      <c r="I17" t="s">
-        <v>227</v>
-      </c>
-      <c r="J17" t="s">
-        <v>228</v>
-      </c>
-      <c r="K17" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" t="s">
-        <v>222</v>
-      </c>
-      <c r="M17" t="s">
-        <v>207</v>
-      </c>
-      <c r="N17" t="s">
-        <v>230</v>
-      </c>
-      <c r="O17" t="s">
-        <v>226</v>
-      </c>
-      <c r="P17" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>222</v>
-      </c>
-      <c r="R17" t="s">
-        <v>207</v>
-      </c>
-      <c r="S17" t="s">
-        <v>230</v>
-      </c>
-      <c r="T17" t="s">
-        <v>231</v>
-      </c>
-      <c r="U17" s="4">
-        <v>2400000</v>
-      </c>
-      <c r="V17" s="4">
-        <v>971000</v>
-      </c>
-      <c r="W17" t="s">
-        <v>49</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>2750000</v>
-      </c>
-      <c r="Z17">
-        <v>213213123</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>41323.66170138889</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>41390</v>
-      </c>
-      <c r="AC17">
-        <v>15</v>
-      </c>
-      <c r="AD17">
-        <v>9</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>42536</v>
-      </c>
-      <c r="AF17">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>222</v>
-      </c>
-      <c r="B18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" t="s">
-        <v>234</v>
-      </c>
-      <c r="F18" s="2">
-        <v>30998</v>
-      </c>
-      <c r="G18" s="3">
-        <v>31.948544665959364</v>
-      </c>
-      <c r="H18" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" t="s">
-        <v>227</v>
-      </c>
-      <c r="J18" t="s">
-        <v>228</v>
-      </c>
-      <c r="K18" t="s">
-        <v>229</v>
-      </c>
-      <c r="L18" t="s">
-        <v>222</v>
-      </c>
-      <c r="M18" t="s">
-        <v>207</v>
-      </c>
-      <c r="N18" t="s">
-        <v>230</v>
-      </c>
-      <c r="O18" t="s">
-        <v>226</v>
-      </c>
-      <c r="P18" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>222</v>
-      </c>
-      <c r="R18" t="s">
-        <v>207</v>
-      </c>
-      <c r="S18" t="s">
-        <v>230</v>
-      </c>
-      <c r="T18" t="s">
-        <v>231</v>
-      </c>
-      <c r="U18" s="4">
-        <v>2400000</v>
-      </c>
-      <c r="V18" s="4">
-        <v>971000</v>
-      </c>
-      <c r="W18" t="s">
-        <v>49</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>2750000</v>
-      </c>
-      <c r="Z18">
-        <v>123123123333333</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>41323.66170138889</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>41390</v>
-      </c>
-      <c r="AC18">
-        <v>15</v>
-      </c>
-      <c r="AD18">
-        <v>9</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>42536</v>
-      </c>
-      <c r="AF18">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>213</v>
-      </c>
-      <c r="B19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="2">
-        <v>30998</v>
-      </c>
-      <c r="G19" s="3">
-        <v>31.948544665959364</v>
-      </c>
-      <c r="H19" t="s">
-        <v>226</v>
-      </c>
-      <c r="I19" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" t="s">
-        <v>228</v>
-      </c>
-      <c r="K19" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" t="s">
-        <v>207</v>
-      </c>
-      <c r="N19" t="s">
-        <v>230</v>
-      </c>
-      <c r="O19" t="s">
-        <v>226</v>
-      </c>
-      <c r="P19" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>222</v>
-      </c>
-      <c r="R19" t="s">
-        <v>207</v>
-      </c>
-      <c r="S19" t="s">
-        <v>230</v>
-      </c>
-      <c r="T19" t="s">
-        <v>231</v>
-      </c>
-      <c r="U19" s="4">
-        <v>2400000</v>
-      </c>
-      <c r="V19" s="4">
-        <v>971000</v>
-      </c>
-      <c r="W19" t="s">
-        <v>49</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>2750000</v>
-      </c>
-      <c r="Z19">
-        <v>45234</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>41323.66170138889</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>41390</v>
-      </c>
-      <c r="AC19">
-        <v>15</v>
-      </c>
-      <c r="AD19">
-        <v>9</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>42536</v>
-      </c>
-      <c r="AF19">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>324</v>
-      </c>
-      <c r="B20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="2">
-        <v>30998</v>
-      </c>
-      <c r="G20" s="3">
-        <v>31.948544665959364</v>
-      </c>
-      <c r="H20" t="s">
-        <v>226</v>
-      </c>
-      <c r="I20" t="s">
-        <v>227</v>
-      </c>
-      <c r="J20" t="s">
-        <v>228</v>
-      </c>
-      <c r="K20" t="s">
-        <v>229</v>
-      </c>
-      <c r="L20" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" t="s">
-        <v>207</v>
-      </c>
-      <c r="N20" t="s">
-        <v>230</v>
-      </c>
-      <c r="O20" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>222</v>
-      </c>
-      <c r="R20" t="s">
-        <v>207</v>
-      </c>
-      <c r="S20" t="s">
-        <v>230</v>
-      </c>
-      <c r="T20" t="s">
-        <v>231</v>
-      </c>
-      <c r="U20" s="4">
-        <v>2400000</v>
-      </c>
-      <c r="V20" s="4">
-        <v>971000</v>
-      </c>
-      <c r="W20" t="s">
-        <v>49</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>2750000</v>
-      </c>
-      <c r="Z20">
-        <v>74695</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>41323.66170138889</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>41390</v>
-      </c>
-      <c r="AC20">
-        <v>15</v>
-      </c>
-      <c r="AD20">
-        <v>9</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>42536</v>
-      </c>
-      <c r="AF20">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>155</v>
-      </c>
-      <c r="B21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" t="s">
-        <v>224</v>
-      </c>
-      <c r="E21" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="2">
-        <v>30998</v>
-      </c>
-      <c r="G21" s="3">
-        <v>31.948544665959364</v>
-      </c>
-      <c r="H21" t="s">
-        <v>226</v>
-      </c>
-      <c r="I21" t="s">
-        <v>227</v>
-      </c>
-      <c r="J21" t="s">
-        <v>228</v>
-      </c>
-      <c r="K21" t="s">
-        <v>229</v>
-      </c>
-      <c r="L21" t="s">
-        <v>222</v>
-      </c>
-      <c r="M21" t="s">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s">
-        <v>230</v>
-      </c>
-      <c r="O21" t="s">
-        <v>226</v>
-      </c>
-      <c r="P21" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>222</v>
-      </c>
-      <c r="R21" t="s">
-        <v>207</v>
-      </c>
-      <c r="S21" t="s">
-        <v>230</v>
-      </c>
-      <c r="T21" t="s">
-        <v>231</v>
-      </c>
-      <c r="U21" s="4">
-        <v>2400000</v>
-      </c>
-      <c r="V21" s="4">
-        <v>971000</v>
-      </c>
-      <c r="W21" t="s">
-        <v>49</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>2750000</v>
-      </c>
-      <c r="Z21">
-        <v>3544234</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>41323.66170138889</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>41390</v>
-      </c>
-      <c r="AC21">
-        <v>15</v>
-      </c>
-      <c r="AD21">
-        <v>9</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>42536</v>
-      </c>
-      <c r="AF21">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>164</v>
-      </c>
-      <c r="B22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="2">
-        <v>30998</v>
-      </c>
-      <c r="G22" s="3">
-        <v>31.948544665959364</v>
-      </c>
-      <c r="H22" t="s">
-        <v>226</v>
-      </c>
-      <c r="I22" t="s">
-        <v>227</v>
-      </c>
-      <c r="J22" t="s">
-        <v>228</v>
-      </c>
-      <c r="K22" t="s">
-        <v>229</v>
-      </c>
-      <c r="L22" t="s">
-        <v>222</v>
-      </c>
-      <c r="M22" t="s">
-        <v>207</v>
-      </c>
-      <c r="N22" t="s">
-        <v>230</v>
-      </c>
-      <c r="O22" t="s">
-        <v>226</v>
-      </c>
-      <c r="P22" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>222</v>
-      </c>
-      <c r="R22" t="s">
-        <v>207</v>
-      </c>
-      <c r="S22" t="s">
-        <v>230</v>
-      </c>
-      <c r="T22" t="s">
-        <v>231</v>
-      </c>
-      <c r="U22" s="4">
-        <v>2400000</v>
-      </c>
-      <c r="V22" s="4">
-        <v>971000</v>
-      </c>
-      <c r="W22" t="s">
-        <v>49</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>2750000</v>
-      </c>
-      <c r="Z22">
-        <v>23768943</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>41323.66170138889</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>41390</v>
-      </c>
-      <c r="AC22">
-        <v>15</v>
-      </c>
-      <c r="AD22">
-        <v>9</v>
-      </c>
-      <c r="AE22" s="5">
-        <v>42536</v>
-      </c>
-      <c r="AF22">
         <v>1000000</v>
       </c>
     </row>
